--- a/stmuli/genetic_180.xlsx
+++ b/stmuli/genetic_180.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F9F729-F97C-492F-86FD-196343D03D4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68473539-A96B-4C5B-A8C4-6EA5DB62A077}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10sets0f18" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,18 @@
     <sheet name="version 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'10sets0f18'!$Y$2:$Y$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'10sets0f18'!$C$2:$C$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'10sets0f18'!$N$2:$N$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'10sets0f18'!$AJ$2:$AJ$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'10sets0f18'!$BQ$2:$BQ$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'10sets0f18'!$CM$2:$CM$19</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'10sets0f18'!$CX$2:$CX$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'10sets0f18'!$AU$2:$AU$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'10sets0f18'!$CB$2:$CB$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'10sets0f18'!$BF$2:$BF$19</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'10sets0f18'!$BF$2:$BF$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'10sets0f18'!$CX$2:$CX$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'10sets0f18'!$AJ$2:$AJ$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'10sets0f18'!$CM$2:$CM$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'10sets0f18'!$AU$2:$AU$19</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'10sets0f18'!$BQ$2:$BQ$19</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'10sets0f18'!$CB$2:$CB$19</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'10sets0f18'!$C$2:$C$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'10sets0f18'!$N$2:$N$19</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'10sets0f18'!$Y$2:$Y$19</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="193">
   <si>
     <t>concepts</t>
   </si>
@@ -602,6 +602,18 @@
   <si>
     <t>leotards</t>
   </si>
+  <si>
+    <t>animate</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
@@ -657,87 +669,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1086,7 +1018,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1119,7 +1051,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1152,7 +1084,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1185,7 +1117,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1218,7 +1150,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1251,7 +1183,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1284,7 +1216,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1317,7 +1249,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1350,7 +1282,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1383,7 +1315,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7018,8 +6950,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7639050" y="3606165"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="7989570" y="3606165"/>
+              <a:ext cx="4827270" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7096,7 +7028,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14660880" y="3632835"/>
+              <a:off x="15266670" y="3632835"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7174,7 +7106,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21880830" y="3640455"/>
+              <a:off x="22486620" y="3640455"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7252,7 +7184,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="28742640" y="3575685"/>
+              <a:off x="29348430" y="3575685"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7330,7 +7262,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="35871150" y="3533775"/>
+              <a:off x="36476940" y="3533775"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7408,7 +7340,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="42839640" y="3609975"/>
+              <a:off x="43445430" y="3609975"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7486,7 +7418,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="50010060" y="3709035"/>
+              <a:off x="50615850" y="3709035"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7564,7 +7496,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="57130950" y="3617595"/>
+              <a:off x="57736740" y="3617595"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7642,7 +7574,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="63916560" y="3537585"/>
+              <a:off x="64522350" y="3537585"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7939,10 +7871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DD19"/>
+  <dimension ref="A1:DE19"/>
   <sheetViews>
-    <sheetView topLeftCell="CK1" workbookViewId="0">
-      <selection activeCell="CV1" sqref="CV1:DD1"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7951,7 +7883,7 @@
     <col min="12" max="12" width="12.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7979,7 +7911,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
@@ -8008,7 +7942,9 @@
       <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
         <v>0</v>
@@ -8037,7 +7973,9 @@
       <c r="AE1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1" t="s">
         <v>0</v>
@@ -8066,7 +8004,9 @@
       <c r="AP1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AQ1" s="1"/>
+      <c r="AQ1" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1" t="s">
         <v>0</v>
@@ -8095,6 +8035,9 @@
       <c r="BA1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="BD1" t="s">
         <v>0</v>
       </c>
@@ -8122,6 +8065,9 @@
       <c r="BL1" t="s">
         <v>8</v>
       </c>
+      <c r="BM1" t="s">
+        <v>189</v>
+      </c>
       <c r="BO1" t="s">
         <v>0</v>
       </c>
@@ -8149,6 +8095,9 @@
       <c r="BW1" t="s">
         <v>8</v>
       </c>
+      <c r="BX1" t="s">
+        <v>189</v>
+      </c>
       <c r="BZ1" t="s">
         <v>0</v>
       </c>
@@ -8176,6 +8125,9 @@
       <c r="CH1" t="s">
         <v>8</v>
       </c>
+      <c r="CI1" t="s">
+        <v>189</v>
+      </c>
       <c r="CK1" t="s">
         <v>0</v>
       </c>
@@ -8203,6 +8155,9 @@
       <c r="CS1" t="s">
         <v>8</v>
       </c>
+      <c r="CT1" t="s">
+        <v>189</v>
+      </c>
       <c r="CV1" t="s">
         <v>0</v>
       </c>
@@ -8230,8 +8185,11 @@
       <c r="DD1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -8259,7 +8217,9 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>27</v>
@@ -8288,7 +8248,9 @@
       <c r="T2" s="1">
         <v>2</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
         <v>45</v>
@@ -8317,7 +8279,9 @@
       <c r="AE2" s="1">
         <v>3</v>
       </c>
-      <c r="AF2" s="1"/>
+      <c r="AF2" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
         <v>63</v>
@@ -8346,7 +8310,9 @@
       <c r="AP2" s="1">
         <v>4</v>
       </c>
-      <c r="AQ2" s="1"/>
+      <c r="AQ2" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1" t="s">
         <v>81</v>
@@ -8375,6 +8341,9 @@
       <c r="BA2" s="1">
         <v>5</v>
       </c>
+      <c r="BB2" t="s">
+        <v>191</v>
+      </c>
       <c r="BD2" t="s">
         <v>99</v>
       </c>
@@ -8402,6 +8371,9 @@
       <c r="BL2">
         <v>6</v>
       </c>
+      <c r="BM2" t="s">
+        <v>191</v>
+      </c>
       <c r="BO2" t="s">
         <v>117</v>
       </c>
@@ -8429,6 +8401,9 @@
       <c r="BW2">
         <v>7</v>
       </c>
+      <c r="BX2" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ2" t="s">
         <v>135</v>
       </c>
@@ -8456,6 +8431,9 @@
       <c r="CH2">
         <v>8</v>
       </c>
+      <c r="CI2" t="s">
+        <v>190</v>
+      </c>
       <c r="CK2" t="s">
         <v>153</v>
       </c>
@@ -8483,6 +8461,9 @@
       <c r="CS2">
         <v>9</v>
       </c>
+      <c r="CT2" t="s">
+        <v>190</v>
+      </c>
       <c r="CV2" t="s">
         <v>171</v>
       </c>
@@ -8510,8 +8491,11 @@
       <c r="DD2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -8539,7 +8523,9 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
         <v>28</v>
@@ -8568,7 +8554,9 @@
       <c r="T3" s="1">
         <v>2</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
         <v>46</v>
@@ -8597,7 +8585,9 @@
       <c r="AE3" s="1">
         <v>3</v>
       </c>
-      <c r="AF3" s="1"/>
+      <c r="AF3" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1" t="s">
         <v>64</v>
@@ -8626,7 +8616,9 @@
       <c r="AP3" s="1">
         <v>4</v>
       </c>
-      <c r="AQ3" s="1"/>
+      <c r="AQ3" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1" t="s">
         <v>82</v>
@@ -8655,6 +8647,9 @@
       <c r="BA3" s="1">
         <v>5</v>
       </c>
+      <c r="BB3" t="s">
+        <v>191</v>
+      </c>
       <c r="BD3" t="s">
         <v>100</v>
       </c>
@@ -8682,6 +8677,9 @@
       <c r="BL3">
         <v>6</v>
       </c>
+      <c r="BM3" t="s">
+        <v>191</v>
+      </c>
       <c r="BO3" t="s">
         <v>118</v>
       </c>
@@ -8709,6 +8707,9 @@
       <c r="BW3">
         <v>7</v>
       </c>
+      <c r="BX3" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ3" t="s">
         <v>136</v>
       </c>
@@ -8736,6 +8737,9 @@
       <c r="CH3">
         <v>8</v>
       </c>
+      <c r="CI3" t="s">
+        <v>190</v>
+      </c>
       <c r="CK3" t="s">
         <v>154</v>
       </c>
@@ -8763,6 +8767,9 @@
       <c r="CS3">
         <v>9</v>
       </c>
+      <c r="CT3" t="s">
+        <v>191</v>
+      </c>
       <c r="CV3" t="s">
         <v>172</v>
       </c>
@@ -8790,8 +8797,11 @@
       <c r="DD3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -8819,7 +8829,9 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
         <v>29</v>
@@ -8848,7 +8860,9 @@
       <c r="T4" s="1">
         <v>2</v>
       </c>
-      <c r="U4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="s">
         <v>47</v>
@@ -8877,7 +8891,9 @@
       <c r="AE4" s="1">
         <v>3</v>
       </c>
-      <c r="AF4" s="1"/>
+      <c r="AF4" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1" t="s">
         <v>65</v>
@@ -8906,7 +8922,9 @@
       <c r="AP4" s="1">
         <v>4</v>
       </c>
-      <c r="AQ4" s="1"/>
+      <c r="AQ4" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
         <v>83</v>
@@ -8935,6 +8953,9 @@
       <c r="BA4" s="1">
         <v>5</v>
       </c>
+      <c r="BB4" t="s">
+        <v>191</v>
+      </c>
       <c r="BD4" t="s">
         <v>101</v>
       </c>
@@ -8962,6 +8983,9 @@
       <c r="BL4">
         <v>6</v>
       </c>
+      <c r="BM4" t="s">
+        <v>191</v>
+      </c>
       <c r="BO4" t="s">
         <v>119</v>
       </c>
@@ -8989,6 +9013,9 @@
       <c r="BW4">
         <v>7</v>
       </c>
+      <c r="BX4" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ4" t="s">
         <v>137</v>
       </c>
@@ -9016,6 +9043,9 @@
       <c r="CH4">
         <v>8</v>
       </c>
+      <c r="CI4" t="s">
+        <v>191</v>
+      </c>
       <c r="CK4" t="s">
         <v>155</v>
       </c>
@@ -9043,6 +9073,9 @@
       <c r="CS4">
         <v>9</v>
       </c>
+      <c r="CT4" t="s">
+        <v>190</v>
+      </c>
       <c r="CV4" t="s">
         <v>173</v>
       </c>
@@ -9070,8 +9103,11 @@
       <c r="DD4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -9099,7 +9135,9 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
         <v>30</v>
@@ -9128,7 +9166,9 @@
       <c r="T5" s="1">
         <v>2</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
         <v>48</v>
@@ -9157,7 +9197,9 @@
       <c r="AE5" s="1">
         <v>3</v>
       </c>
-      <c r="AF5" s="1"/>
+      <c r="AF5" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1" t="s">
         <v>66</v>
@@ -9186,7 +9228,9 @@
       <c r="AP5" s="1">
         <v>4</v>
       </c>
-      <c r="AQ5" s="1"/>
+      <c r="AQ5" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
         <v>84</v>
@@ -9215,6 +9259,9 @@
       <c r="BA5" s="1">
         <v>5</v>
       </c>
+      <c r="BB5" t="s">
+        <v>191</v>
+      </c>
       <c r="BD5" t="s">
         <v>102</v>
       </c>
@@ -9242,6 +9289,9 @@
       <c r="BL5">
         <v>6</v>
       </c>
+      <c r="BM5" t="s">
+        <v>191</v>
+      </c>
       <c r="BO5" t="s">
         <v>120</v>
       </c>
@@ -9269,6 +9319,9 @@
       <c r="BW5">
         <v>7</v>
       </c>
+      <c r="BX5" t="s">
+        <v>190</v>
+      </c>
       <c r="BZ5" t="s">
         <v>138</v>
       </c>
@@ -9296,6 +9349,9 @@
       <c r="CH5">
         <v>8</v>
       </c>
+      <c r="CI5" t="s">
+        <v>191</v>
+      </c>
       <c r="CK5" t="s">
         <v>156</v>
       </c>
@@ -9323,6 +9379,9 @@
       <c r="CS5">
         <v>9</v>
       </c>
+      <c r="CT5" t="s">
+        <v>191</v>
+      </c>
       <c r="CV5" t="s">
         <v>174</v>
       </c>
@@ -9350,8 +9409,11 @@
       <c r="DD5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -9379,7 +9441,9 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
         <v>31</v>
@@ -9408,7 +9472,9 @@
       <c r="T6" s="1">
         <v>2</v>
       </c>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
         <v>49</v>
@@ -9437,7 +9503,9 @@
       <c r="AE6" s="1">
         <v>3</v>
       </c>
-      <c r="AF6" s="1"/>
+      <c r="AF6" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1" t="s">
         <v>67</v>
@@ -9466,7 +9534,9 @@
       <c r="AP6" s="1">
         <v>4</v>
       </c>
-      <c r="AQ6" s="1"/>
+      <c r="AQ6" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
         <v>85</v>
@@ -9495,6 +9565,9 @@
       <c r="BA6" s="1">
         <v>5</v>
       </c>
+      <c r="BB6" t="s">
+        <v>191</v>
+      </c>
       <c r="BD6" t="s">
         <v>103</v>
       </c>
@@ -9522,6 +9595,9 @@
       <c r="BL6">
         <v>6</v>
       </c>
+      <c r="BM6" t="s">
+        <v>191</v>
+      </c>
       <c r="BO6" t="s">
         <v>121</v>
       </c>
@@ -9549,6 +9625,9 @@
       <c r="BW6">
         <v>7</v>
       </c>
+      <c r="BX6" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ6" t="s">
         <v>139</v>
       </c>
@@ -9576,6 +9655,9 @@
       <c r="CH6">
         <v>8</v>
       </c>
+      <c r="CI6" t="s">
+        <v>191</v>
+      </c>
       <c r="CK6" t="s">
         <v>157</v>
       </c>
@@ -9603,6 +9685,9 @@
       <c r="CS6">
         <v>9</v>
       </c>
+      <c r="CT6" t="s">
+        <v>191</v>
+      </c>
       <c r="CV6" t="s">
         <v>175</v>
       </c>
@@ -9630,8 +9715,11 @@
       <c r="DD6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -9659,7 +9747,9 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
         <v>32</v>
@@ -9688,7 +9778,9 @@
       <c r="T7" s="1">
         <v>2</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
         <v>50</v>
@@ -9717,7 +9809,9 @@
       <c r="AE7" s="1">
         <v>3</v>
       </c>
-      <c r="AF7" s="1"/>
+      <c r="AF7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1" t="s">
         <v>68</v>
@@ -9746,7 +9840,9 @@
       <c r="AP7" s="1">
         <v>4</v>
       </c>
-      <c r="AQ7" s="1"/>
+      <c r="AQ7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1" t="s">
         <v>86</v>
@@ -9775,6 +9871,9 @@
       <c r="BA7" s="1">
         <v>5</v>
       </c>
+      <c r="BB7" t="s">
+        <v>191</v>
+      </c>
       <c r="BD7" t="s">
         <v>104</v>
       </c>
@@ -9802,6 +9901,9 @@
       <c r="BL7">
         <v>6</v>
       </c>
+      <c r="BM7" t="s">
+        <v>191</v>
+      </c>
       <c r="BO7" t="s">
         <v>122</v>
       </c>
@@ -9829,6 +9931,9 @@
       <c r="BW7">
         <v>7</v>
       </c>
+      <c r="BX7" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ7" t="s">
         <v>140</v>
       </c>
@@ -9856,6 +9961,9 @@
       <c r="CH7">
         <v>8</v>
       </c>
+      <c r="CI7" t="s">
+        <v>191</v>
+      </c>
       <c r="CK7" t="s">
         <v>158</v>
       </c>
@@ -9883,6 +9991,9 @@
       <c r="CS7">
         <v>9</v>
       </c>
+      <c r="CT7" t="s">
+        <v>191</v>
+      </c>
       <c r="CV7" t="s">
         <v>176</v>
       </c>
@@ -9910,8 +10021,11 @@
       <c r="DD7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -9939,7 +10053,9 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
         <v>33</v>
@@ -9968,7 +10084,9 @@
       <c r="T8" s="1">
         <v>2</v>
       </c>
-      <c r="U8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
         <v>51</v>
@@ -9997,7 +10115,9 @@
       <c r="AE8" s="1">
         <v>3</v>
       </c>
-      <c r="AF8" s="1"/>
+      <c r="AF8" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1" t="s">
         <v>69</v>
@@ -10026,7 +10146,9 @@
       <c r="AP8" s="1">
         <v>4</v>
       </c>
-      <c r="AQ8" s="1"/>
+      <c r="AQ8" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1" t="s">
         <v>87</v>
@@ -10055,6 +10177,9 @@
       <c r="BA8" s="1">
         <v>5</v>
       </c>
+      <c r="BB8" t="s">
+        <v>191</v>
+      </c>
       <c r="BD8" t="s">
         <v>105</v>
       </c>
@@ -10082,6 +10207,9 @@
       <c r="BL8">
         <v>6</v>
       </c>
+      <c r="BM8" t="s">
+        <v>191</v>
+      </c>
       <c r="BO8" t="s">
         <v>123</v>
       </c>
@@ -10109,6 +10237,9 @@
       <c r="BW8">
         <v>7</v>
       </c>
+      <c r="BX8" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ8" t="s">
         <v>141</v>
       </c>
@@ -10136,6 +10267,9 @@
       <c r="CH8">
         <v>8</v>
       </c>
+      <c r="CI8" t="s">
+        <v>190</v>
+      </c>
       <c r="CK8" t="s">
         <v>159</v>
       </c>
@@ -10163,6 +10297,9 @@
       <c r="CS8">
         <v>9</v>
       </c>
+      <c r="CT8" t="s">
+        <v>191</v>
+      </c>
       <c r="CV8" t="s">
         <v>177</v>
       </c>
@@ -10190,8 +10327,11 @@
       <c r="DD8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -10219,7 +10359,9 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
         <v>34</v>
@@ -10248,7 +10390,9 @@
       <c r="T9" s="1">
         <v>2</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
         <v>52</v>
@@ -10277,7 +10421,9 @@
       <c r="AE9" s="1">
         <v>3</v>
       </c>
-      <c r="AF9" s="1"/>
+      <c r="AF9" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1" t="s">
         <v>70</v>
@@ -10306,7 +10452,9 @@
       <c r="AP9" s="1">
         <v>4</v>
       </c>
-      <c r="AQ9" s="1"/>
+      <c r="AQ9" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1" t="s">
         <v>88</v>
@@ -10335,6 +10483,9 @@
       <c r="BA9" s="1">
         <v>5</v>
       </c>
+      <c r="BB9" t="s">
+        <v>191</v>
+      </c>
       <c r="BD9" t="s">
         <v>106</v>
       </c>
@@ -10362,6 +10513,9 @@
       <c r="BL9">
         <v>6</v>
       </c>
+      <c r="BM9" t="s">
+        <v>190</v>
+      </c>
       <c r="BO9" t="s">
         <v>124</v>
       </c>
@@ -10389,6 +10543,9 @@
       <c r="BW9">
         <v>7</v>
       </c>
+      <c r="BX9" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ9" t="s">
         <v>142</v>
       </c>
@@ -10416,6 +10573,9 @@
       <c r="CH9">
         <v>8</v>
       </c>
+      <c r="CI9" t="s">
+        <v>191</v>
+      </c>
       <c r="CK9" t="s">
         <v>160</v>
       </c>
@@ -10443,6 +10603,9 @@
       <c r="CS9">
         <v>9</v>
       </c>
+      <c r="CT9" t="s">
+        <v>191</v>
+      </c>
       <c r="CV9" t="s">
         <v>178</v>
       </c>
@@ -10470,8 +10633,11 @@
       <c r="DD9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -10499,7 +10665,9 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
         <v>35</v>
@@ -10528,7 +10696,9 @@
       <c r="T10" s="1">
         <v>2</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
         <v>53</v>
@@ -10557,7 +10727,9 @@
       <c r="AE10" s="1">
         <v>3</v>
       </c>
-      <c r="AF10" s="1"/>
+      <c r="AF10" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1" t="s">
         <v>71</v>
@@ -10586,7 +10758,9 @@
       <c r="AP10" s="1">
         <v>4</v>
       </c>
-      <c r="AQ10" s="1"/>
+      <c r="AQ10" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1" t="s">
         <v>89</v>
@@ -10615,6 +10789,9 @@
       <c r="BA10" s="1">
         <v>5</v>
       </c>
+      <c r="BB10" t="s">
+        <v>191</v>
+      </c>
       <c r="BD10" t="s">
         <v>107</v>
       </c>
@@ -10642,6 +10819,9 @@
       <c r="BL10">
         <v>6</v>
       </c>
+      <c r="BM10" t="s">
+        <v>191</v>
+      </c>
       <c r="BO10" t="s">
         <v>125</v>
       </c>
@@ -10669,6 +10849,9 @@
       <c r="BW10">
         <v>7</v>
       </c>
+      <c r="BX10" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ10" t="s">
         <v>143</v>
       </c>
@@ -10696,6 +10879,9 @@
       <c r="CH10">
         <v>8</v>
       </c>
+      <c r="CI10" t="s">
+        <v>191</v>
+      </c>
       <c r="CK10" t="s">
         <v>161</v>
       </c>
@@ -10723,6 +10909,9 @@
       <c r="CS10">
         <v>9</v>
       </c>
+      <c r="CT10" t="s">
+        <v>191</v>
+      </c>
       <c r="CV10" t="s">
         <v>179</v>
       </c>
@@ -10750,8 +10939,11 @@
       <c r="DD10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -10779,7 +10971,9 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
         <v>36</v>
@@ -10808,7 +11002,9 @@
       <c r="T11" s="1">
         <v>2</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
         <v>54</v>
@@ -10837,7 +11033,9 @@
       <c r="AE11" s="1">
         <v>3</v>
       </c>
-      <c r="AF11" s="1"/>
+      <c r="AF11" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1" t="s">
         <v>72</v>
@@ -10866,7 +11064,9 @@
       <c r="AP11" s="1">
         <v>4</v>
       </c>
-      <c r="AQ11" s="1"/>
+      <c r="AQ11" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1" t="s">
         <v>90</v>
@@ -10895,6 +11095,9 @@
       <c r="BA11" s="1">
         <v>5</v>
       </c>
+      <c r="BB11" t="s">
+        <v>191</v>
+      </c>
       <c r="BD11" t="s">
         <v>108</v>
       </c>
@@ -10922,6 +11125,9 @@
       <c r="BL11">
         <v>6</v>
       </c>
+      <c r="BM11" t="s">
+        <v>191</v>
+      </c>
       <c r="BO11" t="s">
         <v>126</v>
       </c>
@@ -10949,6 +11155,9 @@
       <c r="BW11">
         <v>7</v>
       </c>
+      <c r="BX11" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ11" t="s">
         <v>144</v>
       </c>
@@ -10976,6 +11185,9 @@
       <c r="CH11">
         <v>8</v>
       </c>
+      <c r="CI11" t="s">
+        <v>191</v>
+      </c>
       <c r="CK11" t="s">
         <v>162</v>
       </c>
@@ -11003,6 +11215,9 @@
       <c r="CS11">
         <v>9</v>
       </c>
+      <c r="CT11" t="s">
+        <v>191</v>
+      </c>
       <c r="CV11" t="s">
         <v>180</v>
       </c>
@@ -11030,8 +11245,11 @@
       <c r="DD11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -11059,7 +11277,9 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
         <v>37</v>
@@ -11088,7 +11308,9 @@
       <c r="T12" s="1">
         <v>2</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
         <v>55</v>
@@ -11117,7 +11339,9 @@
       <c r="AE12" s="1">
         <v>3</v>
       </c>
-      <c r="AF12" s="1"/>
+      <c r="AF12" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1" t="s">
         <v>73</v>
@@ -11146,7 +11370,9 @@
       <c r="AP12" s="1">
         <v>4</v>
       </c>
-      <c r="AQ12" s="1"/>
+      <c r="AQ12" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1" t="s">
         <v>91</v>
@@ -11175,6 +11401,9 @@
       <c r="BA12" s="1">
         <v>5</v>
       </c>
+      <c r="BB12" t="s">
+        <v>191</v>
+      </c>
       <c r="BD12" t="s">
         <v>109</v>
       </c>
@@ -11202,6 +11431,9 @@
       <c r="BL12">
         <v>6</v>
       </c>
+      <c r="BM12" t="s">
+        <v>190</v>
+      </c>
       <c r="BO12" t="s">
         <v>127</v>
       </c>
@@ -11229,6 +11461,9 @@
       <c r="BW12">
         <v>7</v>
       </c>
+      <c r="BX12" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ12" t="s">
         <v>145</v>
       </c>
@@ -11256,6 +11491,9 @@
       <c r="CH12">
         <v>8</v>
       </c>
+      <c r="CI12" t="s">
+        <v>191</v>
+      </c>
       <c r="CK12" t="s">
         <v>163</v>
       </c>
@@ -11283,6 +11521,9 @@
       <c r="CS12">
         <v>9</v>
       </c>
+      <c r="CT12" t="s">
+        <v>191</v>
+      </c>
       <c r="CV12" t="s">
         <v>181</v>
       </c>
@@ -11310,8 +11551,11 @@
       <c r="DD12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -11339,7 +11583,9 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
         <v>38</v>
@@ -11368,7 +11614,9 @@
       <c r="T13" s="1">
         <v>2</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
         <v>56</v>
@@ -11397,7 +11645,9 @@
       <c r="AE13" s="1">
         <v>3</v>
       </c>
-      <c r="AF13" s="1"/>
+      <c r="AF13" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
         <v>74</v>
@@ -11426,7 +11676,9 @@
       <c r="AP13" s="1">
         <v>4</v>
       </c>
-      <c r="AQ13" s="1"/>
+      <c r="AQ13" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1" t="s">
         <v>92</v>
@@ -11455,6 +11707,9 @@
       <c r="BA13" s="1">
         <v>5</v>
       </c>
+      <c r="BB13" t="s">
+        <v>191</v>
+      </c>
       <c r="BD13" t="s">
         <v>110</v>
       </c>
@@ -11482,6 +11737,9 @@
       <c r="BL13">
         <v>6</v>
       </c>
+      <c r="BM13" t="s">
+        <v>191</v>
+      </c>
       <c r="BO13" t="s">
         <v>128</v>
       </c>
@@ -11509,6 +11767,9 @@
       <c r="BW13">
         <v>7</v>
       </c>
+      <c r="BX13" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ13" t="s">
         <v>146</v>
       </c>
@@ -11536,6 +11797,9 @@
       <c r="CH13">
         <v>8</v>
       </c>
+      <c r="CI13" t="s">
+        <v>190</v>
+      </c>
       <c r="CK13" t="s">
         <v>164</v>
       </c>
@@ -11563,6 +11827,9 @@
       <c r="CS13">
         <v>9</v>
       </c>
+      <c r="CT13" t="s">
+        <v>191</v>
+      </c>
       <c r="CV13" t="s">
         <v>182</v>
       </c>
@@ -11590,8 +11857,11 @@
       <c r="DD13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -11619,7 +11889,9 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
         <v>39</v>
@@ -11648,7 +11920,9 @@
       <c r="T14" s="1">
         <v>2</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
         <v>57</v>
@@ -11677,7 +11951,9 @@
       <c r="AE14" s="1">
         <v>3</v>
       </c>
-      <c r="AF14" s="1"/>
+      <c r="AF14" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
         <v>75</v>
@@ -11706,7 +11982,9 @@
       <c r="AP14" s="1">
         <v>4</v>
       </c>
-      <c r="AQ14" s="1"/>
+      <c r="AQ14" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1" t="s">
         <v>93</v>
@@ -11735,6 +12013,9 @@
       <c r="BA14" s="1">
         <v>5</v>
       </c>
+      <c r="BB14" t="s">
+        <v>190</v>
+      </c>
       <c r="BD14" t="s">
         <v>111</v>
       </c>
@@ -11762,6 +12043,9 @@
       <c r="BL14">
         <v>6</v>
       </c>
+      <c r="BM14" t="s">
+        <v>191</v>
+      </c>
       <c r="BO14" t="s">
         <v>129</v>
       </c>
@@ -11789,6 +12073,9 @@
       <c r="BW14">
         <v>7</v>
       </c>
+      <c r="BX14" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ14" t="s">
         <v>147</v>
       </c>
@@ -11816,6 +12103,9 @@
       <c r="CH14">
         <v>8</v>
       </c>
+      <c r="CI14" t="s">
+        <v>191</v>
+      </c>
       <c r="CK14" t="s">
         <v>165</v>
       </c>
@@ -11843,6 +12133,9 @@
       <c r="CS14">
         <v>9</v>
       </c>
+      <c r="CT14" t="s">
+        <v>191</v>
+      </c>
       <c r="CV14" t="s">
         <v>183</v>
       </c>
@@ -11870,8 +12163,11 @@
       <c r="DD14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -11899,7 +12195,9 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
         <v>40</v>
@@ -11928,7 +12226,9 @@
       <c r="T15" s="1">
         <v>2</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
         <v>58</v>
@@ -11957,7 +12257,9 @@
       <c r="AE15" s="1">
         <v>3</v>
       </c>
-      <c r="AF15" s="1"/>
+      <c r="AF15" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
         <v>76</v>
@@ -11986,7 +12288,9 @@
       <c r="AP15" s="1">
         <v>4</v>
       </c>
-      <c r="AQ15" s="1"/>
+      <c r="AQ15" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
         <v>94</v>
@@ -12015,6 +12319,9 @@
       <c r="BA15" s="1">
         <v>5</v>
       </c>
+      <c r="BB15" t="s">
+        <v>191</v>
+      </c>
       <c r="BD15" t="s">
         <v>112</v>
       </c>
@@ -12042,6 +12349,9 @@
       <c r="BL15">
         <v>6</v>
       </c>
+      <c r="BM15" t="s">
+        <v>190</v>
+      </c>
       <c r="BO15" t="s">
         <v>130</v>
       </c>
@@ -12069,6 +12379,9 @@
       <c r="BW15">
         <v>7</v>
       </c>
+      <c r="BX15" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ15" t="s">
         <v>148</v>
       </c>
@@ -12096,6 +12409,9 @@
       <c r="CH15">
         <v>8</v>
       </c>
+      <c r="CI15" t="s">
+        <v>191</v>
+      </c>
       <c r="CK15" t="s">
         <v>166</v>
       </c>
@@ -12123,6 +12439,9 @@
       <c r="CS15">
         <v>9</v>
       </c>
+      <c r="CT15" t="s">
+        <v>191</v>
+      </c>
       <c r="CV15" t="s">
         <v>184</v>
       </c>
@@ -12150,8 +12469,11 @@
       <c r="DD15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -12179,7 +12501,9 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
         <v>41</v>
@@ -12208,7 +12532,9 @@
       <c r="T16" s="1">
         <v>2</v>
       </c>
-      <c r="U16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
         <v>59</v>
@@ -12237,7 +12563,9 @@
       <c r="AE16" s="1">
         <v>3</v>
       </c>
-      <c r="AF16" s="1"/>
+      <c r="AF16" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1" t="s">
         <v>77</v>
@@ -12266,7 +12594,9 @@
       <c r="AP16" s="1">
         <v>4</v>
       </c>
-      <c r="AQ16" s="1"/>
+      <c r="AQ16" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1" t="s">
         <v>95</v>
@@ -12295,6 +12625,9 @@
       <c r="BA16" s="1">
         <v>5</v>
       </c>
+      <c r="BB16" t="s">
+        <v>191</v>
+      </c>
       <c r="BD16" t="s">
         <v>113</v>
       </c>
@@ -12322,6 +12655,9 @@
       <c r="BL16">
         <v>6</v>
       </c>
+      <c r="BM16" t="s">
+        <v>191</v>
+      </c>
       <c r="BO16" t="s">
         <v>131</v>
       </c>
@@ -12349,6 +12685,9 @@
       <c r="BW16">
         <v>7</v>
       </c>
+      <c r="BX16" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ16" t="s">
         <v>149</v>
       </c>
@@ -12376,6 +12715,9 @@
       <c r="CH16">
         <v>8</v>
       </c>
+      <c r="CI16" t="s">
+        <v>190</v>
+      </c>
       <c r="CK16" t="s">
         <v>167</v>
       </c>
@@ -12403,6 +12745,9 @@
       <c r="CS16">
         <v>9</v>
       </c>
+      <c r="CT16" t="s">
+        <v>191</v>
+      </c>
       <c r="CV16" t="s">
         <v>185</v>
       </c>
@@ -12430,8 +12775,11 @@
       <c r="DD16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -12459,7 +12807,9 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
         <v>42</v>
@@ -12488,7 +12838,9 @@
       <c r="T17" s="1">
         <v>2</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
         <v>60</v>
@@ -12517,7 +12869,9 @@
       <c r="AE17" s="1">
         <v>3</v>
       </c>
-      <c r="AF17" s="1"/>
+      <c r="AF17" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1" t="s">
         <v>78</v>
@@ -12546,7 +12900,9 @@
       <c r="AP17" s="1">
         <v>4</v>
       </c>
-      <c r="AQ17" s="1"/>
+      <c r="AQ17" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1" t="s">
         <v>96</v>
@@ -12575,6 +12931,9 @@
       <c r="BA17" s="1">
         <v>5</v>
       </c>
+      <c r="BB17" t="s">
+        <v>191</v>
+      </c>
       <c r="BD17" t="s">
         <v>114</v>
       </c>
@@ -12602,6 +12961,9 @@
       <c r="BL17">
         <v>6</v>
       </c>
+      <c r="BM17" t="s">
+        <v>191</v>
+      </c>
       <c r="BO17" t="s">
         <v>132</v>
       </c>
@@ -12629,6 +12991,9 @@
       <c r="BW17">
         <v>7</v>
       </c>
+      <c r="BX17" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ17" t="s">
         <v>150</v>
       </c>
@@ -12656,6 +13021,9 @@
       <c r="CH17">
         <v>8</v>
       </c>
+      <c r="CI17" t="s">
+        <v>190</v>
+      </c>
       <c r="CK17" t="s">
         <v>168</v>
       </c>
@@ -12683,6 +13051,9 @@
       <c r="CS17">
         <v>9</v>
       </c>
+      <c r="CT17" t="s">
+        <v>190</v>
+      </c>
       <c r="CV17" t="s">
         <v>186</v>
       </c>
@@ -12710,8 +13081,11 @@
       <c r="DD17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -12739,7 +13113,9 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
         <v>43</v>
@@ -12768,7 +13144,9 @@
       <c r="T18" s="1">
         <v>2</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
         <v>61</v>
@@ -12797,7 +13175,9 @@
       <c r="AE18" s="1">
         <v>3</v>
       </c>
-      <c r="AF18" s="1"/>
+      <c r="AF18" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1" t="s">
         <v>79</v>
@@ -12826,7 +13206,9 @@
       <c r="AP18" s="1">
         <v>4</v>
       </c>
-      <c r="AQ18" s="1"/>
+      <c r="AQ18" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1" t="s">
         <v>97</v>
@@ -12855,6 +13237,9 @@
       <c r="BA18" s="1">
         <v>5</v>
       </c>
+      <c r="BB18" t="s">
+        <v>191</v>
+      </c>
       <c r="BD18" t="s">
         <v>115</v>
       </c>
@@ -12882,6 +13267,9 @@
       <c r="BL18">
         <v>6</v>
       </c>
+      <c r="BM18" t="s">
+        <v>191</v>
+      </c>
       <c r="BO18" t="s">
         <v>133</v>
       </c>
@@ -12909,6 +13297,9 @@
       <c r="BW18">
         <v>7</v>
       </c>
+      <c r="BX18" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ18" t="s">
         <v>151</v>
       </c>
@@ -12936,6 +13327,9 @@
       <c r="CH18">
         <v>8</v>
       </c>
+      <c r="CI18" t="s">
+        <v>191</v>
+      </c>
       <c r="CK18" t="s">
         <v>169</v>
       </c>
@@ -12963,6 +13357,9 @@
       <c r="CS18">
         <v>9</v>
       </c>
+      <c r="CT18" t="s">
+        <v>190</v>
+      </c>
       <c r="CV18" t="s">
         <v>187</v>
       </c>
@@ -12990,8 +13387,11 @@
       <c r="DD18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.55000000000000004">
+      <c r="DE18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:109" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -13019,7 +13419,9 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
         <v>44</v>
@@ -13048,7 +13450,9 @@
       <c r="T19" s="1">
         <v>2</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
         <v>62</v>
@@ -13077,7 +13481,9 @@
       <c r="AE19" s="1">
         <v>3</v>
       </c>
-      <c r="AF19" s="1"/>
+      <c r="AF19" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1" t="s">
         <v>80</v>
@@ -13106,7 +13512,9 @@
       <c r="AP19" s="1">
         <v>4</v>
       </c>
-      <c r="AQ19" s="1"/>
+      <c r="AQ19" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1" t="s">
         <v>98</v>
@@ -13135,6 +13543,9 @@
       <c r="BA19" s="1">
         <v>5</v>
       </c>
+      <c r="BB19" t="s">
+        <v>191</v>
+      </c>
       <c r="BD19" t="s">
         <v>116</v>
       </c>
@@ -13162,6 +13573,9 @@
       <c r="BL19">
         <v>6</v>
       </c>
+      <c r="BM19" t="s">
+        <v>191</v>
+      </c>
       <c r="BO19" t="s">
         <v>134</v>
       </c>
@@ -13189,6 +13603,9 @@
       <c r="BW19">
         <v>7</v>
       </c>
+      <c r="BX19" t="s">
+        <v>191</v>
+      </c>
       <c r="BZ19" t="s">
         <v>152</v>
       </c>
@@ -13216,6 +13633,9 @@
       <c r="CH19">
         <v>8</v>
       </c>
+      <c r="CI19" t="s">
+        <v>191</v>
+      </c>
       <c r="CK19" t="s">
         <v>170</v>
       </c>
@@ -13243,6 +13663,9 @@
       <c r="CS19">
         <v>9</v>
       </c>
+      <c r="CT19" t="s">
+        <v>191</v>
+      </c>
       <c r="CV19" t="s">
         <v>188</v>
       </c>
@@ -13270,10 +13693,13 @@
       <c r="DD19">
         <v>10</v>
       </c>
+      <c r="DE19" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="W2:W19 L2:L19 A2:A19 AH2:AH19 AS2:AS19 BD2:BD19 BO2:BO19 BZ2:BZ19 CK2:CK19 CV2:CV19">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31258,16 +31684,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O110:O127">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O128:O145">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O146:O163">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O164:O181">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31277,7 +31703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D28548-4287-4DA0-B4E6-390111327B46}">
   <dimension ref="A1:W451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A434" sqref="A434:I451"/>
     </sheetView>
   </sheetViews>
@@ -49251,16 +49677,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:A37">
-    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A55">
-    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A73">
-    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A91">
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O37">
     <cfRule type="duplicateValues" dxfId="23" priority="24"/>

--- a/stmuli/genetic_180.xlsx
+++ b/stmuli/genetic_180.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68473539-A96B-4C5B-A8C4-6EA5DB62A077}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF882F50-994D-4740-B8C5-825D598F0A41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10sets0f18" sheetId="1" r:id="rId1"/>
@@ -13,28 +13,37 @@
     <sheet name="version 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'10sets0f18'!$BF$2:$BF$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'10sets0f18'!$CX$2:$CX$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'10sets0f18'!$AJ$2:$AJ$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'10sets0f18'!$CM$2:$CM$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'10sets0f18'!$AU$2:$AU$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'10sets0f18'!$BQ$2:$BQ$19</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'10sets0f18'!$C$2:$C$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'10sets0f18'!$N$2:$N$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'10sets0f18'!$CX$2:$CX$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'10sets0f18'!$AJ$2:$AJ$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'10sets0f18'!$BF$2:$BF$19</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'10sets0f18'!$AU$2:$AU$19</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'10sets0f18'!$CB$2:$CB$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'10sets0f18'!$C$2:$C$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'10sets0f18'!$N$2:$N$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'10sets0f18'!$Y$2:$Y$19</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'10sets0f18'!$Y$2:$Y$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'10sets0f18'!$BQ$2:$BQ$19</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'10sets0f18'!$CM$2:$CM$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="197">
   <si>
     <t>concepts</t>
   </si>
@@ -614,6 +623,18 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>set1 mean fam</t>
+  </si>
+  <si>
+    <t>set1 fam range</t>
+  </si>
+  <si>
+    <t>set2 mean fam</t>
+  </si>
+  <si>
+    <t>set2 fam range</t>
+  </si>
 </sst>
 </file>
 
@@ -1018,7 +1039,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1051,7 +1072,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1084,7 +1105,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1117,7 +1138,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1150,7 +1171,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1183,7 +1204,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1216,7 +1237,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1249,7 +1270,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1315,7 +1336,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6872,8 +6893,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="537210" y="3568065"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="539115" y="3535680"/>
+              <a:ext cx="4352925" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6892,7 +6913,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -6950,8 +6971,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7989570" y="3606165"/>
-              <a:ext cx="4827270" cy="2743200"/>
+              <a:off x="7625715" y="3573780"/>
+              <a:ext cx="4572000" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6970,7 +6991,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7028,8 +7049,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15266670" y="3632835"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="14554200" y="3598545"/>
+              <a:ext cx="4324350" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7048,7 +7069,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7106,8 +7127,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="22486620" y="3640455"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="21408390" y="3608070"/>
+              <a:ext cx="4352925" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7126,7 +7147,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7184,8 +7205,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29348430" y="3575685"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="27965400" y="3535680"/>
+              <a:ext cx="4324350" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7204,7 +7225,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7262,8 +7283,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="36476940" y="3533775"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="34724340" y="3493770"/>
+              <a:ext cx="4362450" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7282,7 +7303,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7340,8 +7361,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="43445430" y="3609975"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="41386125" y="3569970"/>
+              <a:ext cx="4333875" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7360,7 +7381,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7418,8 +7439,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="50615850" y="3709035"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="48196500" y="3674745"/>
+              <a:ext cx="4352925" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7438,7 +7459,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7496,8 +7517,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="57736740" y="3617595"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="54984015" y="3579495"/>
+              <a:ext cx="4352925" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7516,7 +7537,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7574,8 +7595,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="64522350" y="3537585"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="61464825" y="3497580"/>
+              <a:ext cx="4324350" cy="2714625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7594,7 +7615,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -7873,17 +7894,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
+    <sheetView topLeftCell="CK1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8189,7 +8210,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -8495,7 +8516,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -8801,7 +8822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -9107,7 +9128,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -9413,7 +9434,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -9719,7 +9740,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -10025,7 +10046,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -10331,7 +10352,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -10637,7 +10658,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -10943,7 +10964,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -11249,7 +11270,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -11555,7 +11576,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -11861,7 +11882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -12167,7 +12188,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -12473,7 +12494,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -12779,7 +12800,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -13085,7 +13106,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -13391,7 +13412,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -13708,15 +13729,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC0EF2C-D25B-4205-9DA3-4EDE38FAD22D}">
-  <dimension ref="A1:W451"/>
+  <dimension ref="A1:Z451"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W91" sqref="O2:W91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="25" max="25" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13772,7 +13796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -13827,8 +13851,15 @@
       <c r="W2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z2">
+        <f>AVERAGE(Q2:Q91)</f>
+        <v>6.0072222222222207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -13883,8 +13914,15 @@
       <c r="W3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z3">
+        <f>MAX(Q2:Q91)-MIN(Q2:Q91)</f>
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -13940,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -13995,8 +14033,15 @@
       <c r="W5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z5">
+        <f>AVERAGE(Q92:Q181)</f>
+        <v>5.7394444444444437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -14051,8 +14096,15 @@
       <c r="W6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z6">
+        <f>MAX(Q92:Q181)-MIN(Q92:Q181)</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -14108,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -14164,7 +14216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -14220,7 +14272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -14276,7 +14328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -14332,7 +14384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -14388,7 +14440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -14444,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -14500,7 +14552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -14556,7 +14608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -14612,7 +14664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -14668,7 +14720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -14724,7 +14776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -14780,7 +14832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -14836,7 +14888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -14892,7 +14944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -14948,7 +15000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -15004,7 +15056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -15060,7 +15112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -15116,7 +15168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -15172,7 +15224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -15228,7 +15280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -15284,7 +15336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -15340,7 +15392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -15396,7 +15448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -15452,7 +15504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -15508,7 +15560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -15564,7 +15616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -15620,7 +15672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -15676,7 +15728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -15732,7 +15784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -15788,7 +15840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -15844,7 +15896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -15900,7 +15952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -15956,7 +16008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -16012,7 +16064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -16068,7 +16120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -16124,7 +16176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -16180,7 +16232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -16236,7 +16288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -16292,7 +16344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -16348,7 +16400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -16404,7 +16456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -16460,7 +16512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -16516,7 +16568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -16572,7 +16624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -16628,7 +16680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -16684,7 +16736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -16740,7 +16792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -16796,7 +16848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -16852,7 +16904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -16908,7 +16960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -16964,7 +17016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -17020,7 +17072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -17076,7 +17128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -17132,7 +17184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -17188,7 +17240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -17244,7 +17296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -17300,7 +17352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -17356,7 +17408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -17412,7 +17464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -17468,7 +17520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -17524,7 +17576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -17580,7 +17632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -17636,7 +17688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -17692,7 +17744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -17748,7 +17800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -17804,7 +17856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -17860,7 +17912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -17916,7 +17968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -17972,7 +18024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -18028,7 +18080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -18084,7 +18136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -18140,7 +18192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -18196,7 +18248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -18252,7 +18304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -18308,7 +18360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -18364,7 +18416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -18420,7 +18472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -18476,7 +18528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -18532,7 +18584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -18588,7 +18640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -18644,7 +18696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -18700,7 +18752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -18756,7 +18808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -18812,7 +18864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -18868,7 +18920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -18924,7 +18976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -18980,7 +19032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -19036,7 +19088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -19092,7 +19144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -19148,7 +19200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -19204,7 +19256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -19260,7 +19312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -19316,7 +19368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -19372,7 +19424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -19428,7 +19480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -19484,7 +19536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -19540,7 +19592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -19596,7 +19648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -19652,7 +19704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -19708,7 +19760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -19764,7 +19816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -19820,7 +19872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -19876,7 +19928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>28</v>
       </c>
@@ -19932,7 +19984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -19988,7 +20040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -20044,7 +20096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -20100,7 +20152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -20156,7 +20208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -20212,7 +20264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -20268,7 +20320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -20324,7 +20376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -20380,7 +20432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -20436,7 +20488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -20492,7 +20544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -20548,7 +20600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>40</v>
       </c>
@@ -20604,7 +20656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -20660,7 +20712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -20716,7 +20768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -20772,7 +20824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>44</v>
       </c>
@@ -20828,7 +20880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -20884,7 +20936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>46</v>
       </c>
@@ -20940,7 +20992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -20996,7 +21048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -21052,7 +21104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>49</v>
       </c>
@@ -21108,7 +21160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -21164,7 +21216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>51</v>
       </c>
@@ -21220,7 +21272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>52</v>
       </c>
@@ -21276,7 +21328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>53</v>
       </c>
@@ -21332,7 +21384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>54</v>
       </c>
@@ -21388,7 +21440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>55</v>
       </c>
@@ -21444,7 +21496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -21500,7 +21552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>57</v>
       </c>
@@ -21556,7 +21608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>58</v>
       </c>
@@ -21612,7 +21664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>59</v>
       </c>
@@ -21668,7 +21720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -21724,7 +21776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>61</v>
       </c>
@@ -21780,7 +21832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>62</v>
       </c>
@@ -21836,7 +21888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -21892,7 +21944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>46</v>
       </c>
@@ -21948,7 +22000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>47</v>
       </c>
@@ -22004,7 +22056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>48</v>
       </c>
@@ -22060,7 +22112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>49</v>
       </c>
@@ -22116,7 +22168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>50</v>
       </c>
@@ -22172,7 +22224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -22228,7 +22280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>52</v>
       </c>
@@ -22284,7 +22336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>53</v>
       </c>
@@ -22340,7 +22392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>54</v>
       </c>
@@ -22396,7 +22448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>55</v>
       </c>
@@ -22452,7 +22504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>56</v>
       </c>
@@ -22508,7 +22560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>57</v>
       </c>
@@ -22564,7 +22616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -22620,7 +22672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -22676,7 +22728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -22732,7 +22784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>61</v>
       </c>
@@ -22788,7 +22840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>62</v>
       </c>
@@ -22844,7 +22896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -22900,7 +22952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>46</v>
       </c>
@@ -22956,7 +23008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -23012,7 +23064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -23068,7 +23120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>49</v>
       </c>
@@ -23124,7 +23176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>50</v>
       </c>
@@ -23180,7 +23232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -23236,7 +23288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>52</v>
       </c>
@@ -23292,7 +23344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>53</v>
       </c>
@@ -23348,7 +23400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>54</v>
       </c>
@@ -23404,7 +23456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -23460,7 +23512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>56</v>
       </c>
@@ -23516,7 +23568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>57</v>
       </c>
@@ -23572,7 +23624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>58</v>
       </c>
@@ -23628,7 +23680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>59</v>
       </c>
@@ -23684,7 +23736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>60</v>
       </c>
@@ -23740,7 +23792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>61</v>
       </c>
@@ -23796,7 +23848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>62</v>
       </c>
@@ -23852,7 +23904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -23881,7 +23933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -23910,7 +23962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>47</v>
       </c>
@@ -23939,7 +23991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>48</v>
       </c>
@@ -23968,7 +24020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -23997,7 +24049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>50</v>
       </c>
@@ -24026,7 +24078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>51</v>
       </c>
@@ -24055,7 +24107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>52</v>
       </c>
@@ -24084,7 +24136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>53</v>
       </c>
@@ -24113,7 +24165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>54</v>
       </c>
@@ -24142,7 +24194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>55</v>
       </c>
@@ -24171,7 +24223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>56</v>
       </c>
@@ -24200,7 +24252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>57</v>
       </c>
@@ -24229,7 +24281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -24258,7 +24310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>59</v>
       </c>
@@ -24287,7 +24339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>60</v>
       </c>
@@ -24316,7 +24368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>61</v>
       </c>
@@ -24345,7 +24397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>62</v>
       </c>
@@ -24374,7 +24426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>63</v>
       </c>
@@ -24403,7 +24455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>64</v>
       </c>
@@ -24432,7 +24484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>65</v>
       </c>
@@ -24461,7 +24513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>66</v>
       </c>
@@ -24490,7 +24542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>67</v>
       </c>
@@ -24519,7 +24571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>68</v>
       </c>
@@ -24548,7 +24600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>69</v>
       </c>
@@ -24577,7 +24629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>70</v>
       </c>
@@ -24606,7 +24658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>71</v>
       </c>
@@ -24635,7 +24687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>72</v>
       </c>
@@ -24664,7 +24716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>73</v>
       </c>
@@ -24693,7 +24745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>74</v>
       </c>
@@ -24722,7 +24774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>75</v>
       </c>
@@ -24751,7 +24803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>76</v>
       </c>
@@ -24780,7 +24832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>77</v>
       </c>
@@ -24809,7 +24861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>78</v>
       </c>
@@ -24838,7 +24890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>79</v>
       </c>
@@ -24867,7 +24919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>80</v>
       </c>
@@ -24896,7 +24948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>63</v>
       </c>
@@ -24925,7 +24977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>64</v>
       </c>
@@ -24954,7 +25006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>65</v>
       </c>
@@ -24983,7 +25035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>66</v>
       </c>
@@ -25012,7 +25064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>67</v>
       </c>
@@ -25041,7 +25093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>68</v>
       </c>
@@ -25070,7 +25122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>69</v>
       </c>
@@ -25099,7 +25151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>70</v>
       </c>
@@ -25128,7 +25180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>71</v>
       </c>
@@ -25157,7 +25209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>72</v>
       </c>
@@ -25186,7 +25238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>73</v>
       </c>
@@ -25215,7 +25267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>74</v>
       </c>
@@ -25244,7 +25296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>75</v>
       </c>
@@ -25273,7 +25325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>76</v>
       </c>
@@ -25302,7 +25354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>77</v>
       </c>
@@ -25331,7 +25383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>78</v>
       </c>
@@ -25360,7 +25412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>79</v>
       </c>
@@ -25389,7 +25441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>80</v>
       </c>
@@ -25418,7 +25470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>63</v>
       </c>
@@ -25447,7 +25499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>64</v>
       </c>
@@ -25476,7 +25528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>65</v>
       </c>
@@ -25505,7 +25557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>66</v>
       </c>
@@ -25534,7 +25586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>67</v>
       </c>
@@ -25563,7 +25615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>68</v>
       </c>
@@ -25592,7 +25644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>69</v>
       </c>
@@ -25621,7 +25673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>70</v>
       </c>
@@ -25650,7 +25702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>71</v>
       </c>
@@ -25679,7 +25731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>72</v>
       </c>
@@ -25708,7 +25760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>73</v>
       </c>
@@ -25737,7 +25789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>74</v>
       </c>
@@ -25766,7 +25818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>75</v>
       </c>
@@ -25795,7 +25847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>76</v>
       </c>
@@ -25824,7 +25876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>77</v>
       </c>
@@ -25853,7 +25905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>78</v>
       </c>
@@ -25882,7 +25934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>79</v>
       </c>
@@ -25911,7 +25963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>80</v>
       </c>
@@ -25940,7 +25992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>63</v>
       </c>
@@ -25969,7 +26021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>64</v>
       </c>
@@ -25998,7 +26050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>65</v>
       </c>
@@ -26027,7 +26079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>66</v>
       </c>
@@ -26056,7 +26108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>67</v>
       </c>
@@ -26085,7 +26137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>68</v>
       </c>
@@ -26114,7 +26166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>69</v>
       </c>
@@ -26143,7 +26195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>70</v>
       </c>
@@ -26172,7 +26224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>71</v>
       </c>
@@ -26201,7 +26253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>72</v>
       </c>
@@ -26230,7 +26282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>73</v>
       </c>
@@ -26259,7 +26311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>74</v>
       </c>
@@ -26288,7 +26340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>75</v>
       </c>
@@ -26317,7 +26369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>76</v>
       </c>
@@ -26346,7 +26398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>77</v>
       </c>
@@ -26375,7 +26427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>78</v>
       </c>
@@ -26404,7 +26456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>79</v>
       </c>
@@ -26433,7 +26485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>80</v>
       </c>
@@ -26462,7 +26514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>63</v>
       </c>
@@ -26491,7 +26543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>64</v>
       </c>
@@ -26520,7 +26572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>65</v>
       </c>
@@ -26549,7 +26601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>66</v>
       </c>
@@ -26578,7 +26630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>67</v>
       </c>
@@ -26607,7 +26659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>68</v>
       </c>
@@ -26636,7 +26688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>69</v>
       </c>
@@ -26665,7 +26717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>70</v>
       </c>
@@ -26694,7 +26746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>71</v>
       </c>
@@ -26723,7 +26775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>72</v>
       </c>
@@ -26752,7 +26804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>73</v>
       </c>
@@ -26781,7 +26833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>74</v>
       </c>
@@ -26810,7 +26862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>75</v>
       </c>
@@ -26839,7 +26891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>76</v>
       </c>
@@ -26868,7 +26920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>77</v>
       </c>
@@ -26897,7 +26949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>78</v>
       </c>
@@ -26926,7 +26978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>79</v>
       </c>
@@ -26955,7 +27007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>80</v>
       </c>
@@ -26984,7 +27036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>63</v>
       </c>
@@ -27013,7 +27065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>64</v>
       </c>
@@ -27042,7 +27094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>65</v>
       </c>
@@ -27071,7 +27123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>66</v>
       </c>
@@ -27100,7 +27152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>67</v>
       </c>
@@ -27129,7 +27181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>68</v>
       </c>
@@ -27158,7 +27210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>69</v>
       </c>
@@ -27187,7 +27239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>70</v>
       </c>
@@ -27216,7 +27268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>71</v>
       </c>
@@ -27245,7 +27297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -27274,7 +27326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>73</v>
       </c>
@@ -27303,7 +27355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>74</v>
       </c>
@@ -27332,7 +27384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>75</v>
       </c>
@@ -27361,7 +27413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>76</v>
       </c>
@@ -27390,7 +27442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>77</v>
       </c>
@@ -27419,7 +27471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>78</v>
       </c>
@@ -27448,7 +27500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>79</v>
       </c>
@@ -27477,7 +27529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>80</v>
       </c>
@@ -27506,7 +27558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>81</v>
       </c>
@@ -27535,7 +27587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>82</v>
       </c>
@@ -27564,7 +27616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>83</v>
       </c>
@@ -27593,7 +27645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>84</v>
       </c>
@@ -27622,7 +27674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>85</v>
       </c>
@@ -27651,7 +27703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>86</v>
       </c>
@@ -27680,7 +27732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>87</v>
       </c>
@@ -27709,7 +27761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>88</v>
       </c>
@@ -27738,7 +27790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>89</v>
       </c>
@@ -27767,7 +27819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>90</v>
       </c>
@@ -27796,7 +27848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>91</v>
       </c>
@@ -27825,7 +27877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>92</v>
       </c>
@@ -27854,7 +27906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>93</v>
       </c>
@@ -27883,7 +27935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>94</v>
       </c>
@@ -27912,7 +27964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>95</v>
       </c>
@@ -27941,7 +27993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>96</v>
       </c>
@@ -27970,7 +28022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>97</v>
       </c>
@@ -27999,7 +28051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>98</v>
       </c>
@@ -28028,7 +28080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>81</v>
       </c>
@@ -28057,7 +28109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>82</v>
       </c>
@@ -28086,7 +28138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>83</v>
       </c>
@@ -28115,7 +28167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>84</v>
       </c>
@@ -28144,7 +28196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>85</v>
       </c>
@@ -28173,7 +28225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>86</v>
       </c>
@@ -28202,7 +28254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>87</v>
       </c>
@@ -28231,7 +28283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>88</v>
       </c>
@@ -28260,7 +28312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>89</v>
       </c>
@@ -28289,7 +28341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>90</v>
       </c>
@@ -28318,7 +28370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>91</v>
       </c>
@@ -28347,7 +28399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>92</v>
       </c>
@@ -28376,7 +28428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>93</v>
       </c>
@@ -28405,7 +28457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>94</v>
       </c>
@@ -28434,7 +28486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>95</v>
       </c>
@@ -28463,7 +28515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>96</v>
       </c>
@@ -28492,7 +28544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>97</v>
       </c>
@@ -28521,7 +28573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>98</v>
       </c>
@@ -28550,7 +28602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>81</v>
       </c>
@@ -28579,7 +28631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>82</v>
       </c>
@@ -28608,7 +28660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>83</v>
       </c>
@@ -28637,7 +28689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>84</v>
       </c>
@@ -28666,7 +28718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>85</v>
       </c>
@@ -28695,7 +28747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>86</v>
       </c>
@@ -28724,7 +28776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>87</v>
       </c>
@@ -28753,7 +28805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>88</v>
       </c>
@@ -28782,7 +28834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>89</v>
       </c>
@@ -28811,7 +28863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>90</v>
       </c>
@@ -28840,7 +28892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>91</v>
       </c>
@@ -28869,7 +28921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>92</v>
       </c>
@@ -28898,7 +28950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>93</v>
       </c>
@@ -28927,7 +28979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>94</v>
       </c>
@@ -28956,7 +29008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>95</v>
       </c>
@@ -28985,7 +29037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>96</v>
       </c>
@@ -29014,7 +29066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>97</v>
       </c>
@@ -29043,7 +29095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>98</v>
       </c>
@@ -29072,7 +29124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>81</v>
       </c>
@@ -29101,7 +29153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>82</v>
       </c>
@@ -29130,7 +29182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>83</v>
       </c>
@@ -29159,7 +29211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>84</v>
       </c>
@@ -29188,7 +29240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>85</v>
       </c>
@@ -29217,7 +29269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>86</v>
       </c>
@@ -29246,7 +29298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>87</v>
       </c>
@@ -29275,7 +29327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>88</v>
       </c>
@@ -29304,7 +29356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>89</v>
       </c>
@@ -29333,7 +29385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>90</v>
       </c>
@@ -29362,7 +29414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>91</v>
       </c>
@@ -29391,7 +29443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>92</v>
       </c>
@@ -29420,7 +29472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>93</v>
       </c>
@@ -29449,7 +29501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>94</v>
       </c>
@@ -29478,7 +29530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>95</v>
       </c>
@@ -29507,7 +29559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>96</v>
       </c>
@@ -29536,7 +29588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>97</v>
       </c>
@@ -29565,7 +29617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>98</v>
       </c>
@@ -29594,7 +29646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>81</v>
       </c>
@@ -29623,7 +29675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>82</v>
       </c>
@@ -29652,7 +29704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>83</v>
       </c>
@@ -29681,7 +29733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>84</v>
       </c>
@@ -29710,7 +29762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>85</v>
       </c>
@@ -29739,7 +29791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>86</v>
       </c>
@@ -29768,7 +29820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>87</v>
       </c>
@@ -29797,7 +29849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>88</v>
       </c>
@@ -29826,7 +29878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>89</v>
       </c>
@@ -29855,7 +29907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>90</v>
       </c>
@@ -29884,7 +29936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>91</v>
       </c>
@@ -29913,7 +29965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>92</v>
       </c>
@@ -29942,7 +29994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>93</v>
       </c>
@@ -29971,7 +30023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>94</v>
       </c>
@@ -30000,7 +30052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>95</v>
       </c>
@@ -30029,7 +30081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>96</v>
       </c>
@@ -30058,7 +30110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>97</v>
       </c>
@@ -30087,7 +30139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>98</v>
       </c>
@@ -30116,7 +30168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>81</v>
       </c>
@@ -30145,7 +30197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>82</v>
       </c>
@@ -30174,7 +30226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>83</v>
       </c>
@@ -30203,7 +30255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>84</v>
       </c>
@@ -30232,7 +30284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>85</v>
       </c>
@@ -30261,7 +30313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>86</v>
       </c>
@@ -30290,7 +30342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>87</v>
       </c>
@@ -30319,7 +30371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -30348,7 +30400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -30377,7 +30429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -30406,7 +30458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>91</v>
       </c>
@@ -30435,7 +30487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>92</v>
       </c>
@@ -30464,7 +30516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>93</v>
       </c>
@@ -30493,7 +30545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>94</v>
       </c>
@@ -30522,7 +30574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>95</v>
       </c>
@@ -30551,7 +30603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>96</v>
       </c>
@@ -30580,7 +30632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>97</v>
       </c>
@@ -30609,7 +30661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>98</v>
       </c>
@@ -30638,7 +30690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>81</v>
       </c>
@@ -30667,7 +30719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>82</v>
       </c>
@@ -30696,7 +30748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>83</v>
       </c>
@@ -30725,7 +30777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>84</v>
       </c>
@@ -30754,7 +30806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>85</v>
       </c>
@@ -30783,7 +30835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>86</v>
       </c>
@@ -30812,7 +30864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>87</v>
       </c>
@@ -30841,7 +30893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>88</v>
       </c>
@@ -30870,7 +30922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>89</v>
       </c>
@@ -30899,7 +30951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>90</v>
       </c>
@@ -30928,7 +30980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>91</v>
       </c>
@@ -30957,7 +31009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>92</v>
       </c>
@@ -30986,7 +31038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>93</v>
       </c>
@@ -31015,7 +31067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>94</v>
       </c>
@@ -31044,7 +31096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>95</v>
       </c>
@@ -31073,7 +31125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>96</v>
       </c>
@@ -31102,7 +31154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>97</v>
       </c>
@@ -31131,7 +31183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>98</v>
       </c>
@@ -31160,7 +31212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>81</v>
       </c>
@@ -31189,7 +31241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>82</v>
       </c>
@@ -31218,7 +31270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>83</v>
       </c>
@@ -31247,7 +31299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>84</v>
       </c>
@@ -31276,7 +31328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>85</v>
       </c>
@@ -31305,7 +31357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>86</v>
       </c>
@@ -31334,7 +31386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>87</v>
       </c>
@@ -31363,7 +31415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>88</v>
       </c>
@@ -31392,7 +31444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>89</v>
       </c>
@@ -31421,7 +31473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>90</v>
       </c>
@@ -31450,7 +31502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>91</v>
       </c>
@@ -31479,7 +31531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>92</v>
       </c>
@@ -31508,7 +31560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>93</v>
       </c>
@@ -31537,7 +31589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>94</v>
       </c>
@@ -31566,7 +31618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>95</v>
       </c>
@@ -31595,7 +31647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>96</v>
       </c>
@@ -31624,7 +31676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>97</v>
       </c>
@@ -31653,7 +31705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>98</v>
       </c>
@@ -31707,9 +31759,9 @@
       <selection activeCell="A434" sqref="A434:I451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -31765,7 +31817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -31821,7 +31873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -31877,7 +31929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -31933,7 +31985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -31989,7 +32041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -32045,7 +32097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -32101,7 +32153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -32157,7 +32209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -32213,7 +32265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -32269,7 +32321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -32325,7 +32377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -32381,7 +32433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -32437,7 +32489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -32493,7 +32545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -32549,7 +32601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -32605,7 +32657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -32661,7 +32713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -32717,7 +32769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -32773,7 +32825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -32829,7 +32881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -32885,7 +32937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -32941,7 +32993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -32997,7 +33049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -33053,7 +33105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -33109,7 +33161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -33165,7 +33217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -33221,7 +33273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -33277,7 +33329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -33333,7 +33385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -33389,7 +33441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -33445,7 +33497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -33501,7 +33553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -33557,7 +33609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -33613,7 +33665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -33669,7 +33721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -33725,7 +33777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -33781,7 +33833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -33837,7 +33889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -33893,7 +33945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -33949,7 +34001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -34005,7 +34057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -34061,7 +34113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -34117,7 +34169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -34173,7 +34225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -34229,7 +34281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -34285,7 +34337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -34341,7 +34393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -34397,7 +34449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -34453,7 +34505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -34509,7 +34561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -34565,7 +34617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -34621,7 +34673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -34677,7 +34729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -34733,7 +34785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -34789,7 +34841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -34845,7 +34897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -34901,7 +34953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -34957,7 +35009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -35013,7 +35065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>157</v>
       </c>
@@ -35069,7 +35121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -35125,7 +35177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -35181,7 +35233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -35237,7 +35289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -35293,7 +35345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>162</v>
       </c>
@@ -35349,7 +35401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>163</v>
       </c>
@@ -35405,7 +35457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>164</v>
       </c>
@@ -35461,7 +35513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -35517,7 +35569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -35573,7 +35625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>167</v>
       </c>
@@ -35629,7 +35681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -35685,7 +35737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -35741,7 +35793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -35797,7 +35849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -35853,7 +35905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>172</v>
       </c>
@@ -35909,7 +35961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -35965,7 +36017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -36021,7 +36073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>175</v>
       </c>
@@ -36077,7 +36129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -36133,7 +36185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -36189,7 +36241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -36245,7 +36297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>179</v>
       </c>
@@ -36301,7 +36353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -36357,7 +36409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>181</v>
       </c>
@@ -36413,7 +36465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -36469,7 +36521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>183</v>
       </c>
@@ -36525,7 +36577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>184</v>
       </c>
@@ -36581,7 +36633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>185</v>
       </c>
@@ -36637,7 +36689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -36693,7 +36745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -36749,7 +36801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -36805,7 +36857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -36861,7 +36913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -36917,7 +36969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -36973,7 +37025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>120</v>
       </c>
@@ -37029,7 +37081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -37085,7 +37137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -37141,7 +37193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -37197,7 +37249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -37253,7 +37305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -37309,7 +37361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -37365,7 +37417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -37421,7 +37473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -37477,7 +37529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -37533,7 +37585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>130</v>
       </c>
@@ -37589,7 +37641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>131</v>
       </c>
@@ -37645,7 +37697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>132</v>
       </c>
@@ -37701,7 +37753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>133</v>
       </c>
@@ -37757,7 +37809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>134</v>
       </c>
@@ -37813,7 +37865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -37869,7 +37921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -37925,7 +37977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -37981,7 +38033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -38037,7 +38089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -38093,7 +38145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -38149,7 +38201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -38205,7 +38257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -38261,7 +38313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -38317,7 +38369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -38373,7 +38425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -38429,7 +38481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -38485,7 +38537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>129</v>
       </c>
@@ -38541,7 +38593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -38597,7 +38649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -38653,7 +38705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -38709,7 +38761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>133</v>
       </c>
@@ -38765,7 +38817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -38821,7 +38873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>135</v>
       </c>
@@ -38877,7 +38929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -38933,7 +38985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -38989,7 +39041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -39045,7 +39097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>139</v>
       </c>
@@ -39101,7 +39153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -39157,7 +39209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -39213,7 +39265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -39269,7 +39321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>143</v>
       </c>
@@ -39325,7 +39377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -39381,7 +39433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -39437,7 +39489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -39493,7 +39545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -39549,7 +39601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -39605,7 +39657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -39661,7 +39713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -39717,7 +39769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -39773,7 +39825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -39829,7 +39881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>135</v>
       </c>
@@ -39885,7 +39937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>136</v>
       </c>
@@ -39941,7 +39993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -39997,7 +40049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -40053,7 +40105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>139</v>
       </c>
@@ -40109,7 +40161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>140</v>
       </c>
@@ -40165,7 +40217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -40221,7 +40273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>142</v>
       </c>
@@ -40277,7 +40329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>143</v>
       </c>
@@ -40333,7 +40385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -40389,7 +40441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>145</v>
       </c>
@@ -40445,7 +40497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -40501,7 +40553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>147</v>
       </c>
@@ -40557,7 +40609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>148</v>
       </c>
@@ -40613,7 +40665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -40669,7 +40721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>150</v>
       </c>
@@ -40725,7 +40777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -40781,7 +40833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -40837,7 +40889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>135</v>
       </c>
@@ -40893,7 +40945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>136</v>
       </c>
@@ -40949,7 +41001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>137</v>
       </c>
@@ -41005,7 +41057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>138</v>
       </c>
@@ -41061,7 +41113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -41117,7 +41169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>140</v>
       </c>
@@ -41173,7 +41225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>141</v>
       </c>
@@ -41229,7 +41281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>142</v>
       </c>
@@ -41285,7 +41337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>143</v>
       </c>
@@ -41341,7 +41393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>144</v>
       </c>
@@ -41397,7 +41449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>145</v>
       </c>
@@ -41453,7 +41505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>146</v>
       </c>
@@ -41509,7 +41561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>147</v>
       </c>
@@ -41565,7 +41617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>148</v>
       </c>
@@ -41621,7 +41673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>149</v>
       </c>
@@ -41677,7 +41729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>150</v>
       </c>
@@ -41733,7 +41785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>151</v>
       </c>
@@ -41789,7 +41841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>152</v>
       </c>
@@ -41845,7 +41897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>135</v>
       </c>
@@ -41874,7 +41926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>136</v>
       </c>
@@ -41903,7 +41955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>137</v>
       </c>
@@ -41932,7 +41984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>138</v>
       </c>
@@ -41961,7 +42013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>139</v>
       </c>
@@ -41990,7 +42042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>140</v>
       </c>
@@ -42019,7 +42071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>141</v>
       </c>
@@ -42048,7 +42100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>142</v>
       </c>
@@ -42077,7 +42129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>143</v>
       </c>
@@ -42106,7 +42158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>144</v>
       </c>
@@ -42135,7 +42187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>145</v>
       </c>
@@ -42164,7 +42216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>146</v>
       </c>
@@ -42193,7 +42245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>147</v>
       </c>
@@ -42222,7 +42274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -42251,7 +42303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>149</v>
       </c>
@@ -42280,7 +42332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>150</v>
       </c>
@@ -42309,7 +42361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>151</v>
       </c>
@@ -42338,7 +42390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>152</v>
       </c>
@@ -42367,7 +42419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>153</v>
       </c>
@@ -42396,7 +42448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>154</v>
       </c>
@@ -42425,7 +42477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>155</v>
       </c>
@@ -42454,7 +42506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>156</v>
       </c>
@@ -42483,7 +42535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>157</v>
       </c>
@@ -42512,7 +42564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>158</v>
       </c>
@@ -42541,7 +42593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>159</v>
       </c>
@@ -42570,7 +42622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>160</v>
       </c>
@@ -42599,7 +42651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>161</v>
       </c>
@@ -42628,7 +42680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>162</v>
       </c>
@@ -42657,7 +42709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>163</v>
       </c>
@@ -42686,7 +42738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>164</v>
       </c>
@@ -42715,7 +42767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>165</v>
       </c>
@@ -42744,7 +42796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>166</v>
       </c>
@@ -42773,7 +42825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>167</v>
       </c>
@@ -42802,7 +42854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>168</v>
       </c>
@@ -42831,7 +42883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>169</v>
       </c>
@@ -42860,7 +42912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>170</v>
       </c>
@@ -42889,7 +42941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>153</v>
       </c>
@@ -42918,7 +42970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>154</v>
       </c>
@@ -42947,7 +42999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>155</v>
       </c>
@@ -42976,7 +43028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>156</v>
       </c>
@@ -43005,7 +43057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>157</v>
       </c>
@@ -43034,7 +43086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -43063,7 +43115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>159</v>
       </c>
@@ -43092,7 +43144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>160</v>
       </c>
@@ -43121,7 +43173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>161</v>
       </c>
@@ -43150,7 +43202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>162</v>
       </c>
@@ -43179,7 +43231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>163</v>
       </c>
@@ -43208,7 +43260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>164</v>
       </c>
@@ -43237,7 +43289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>165</v>
       </c>
@@ -43266,7 +43318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>166</v>
       </c>
@@ -43295,7 +43347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>167</v>
       </c>
@@ -43324,7 +43376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>168</v>
       </c>
@@ -43353,7 +43405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>169</v>
       </c>
@@ -43382,7 +43434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>170</v>
       </c>
@@ -43411,7 +43463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>153</v>
       </c>
@@ -43440,7 +43492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>154</v>
       </c>
@@ -43469,7 +43521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>155</v>
       </c>
@@ -43498,7 +43550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>156</v>
       </c>
@@ -43527,7 +43579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>157</v>
       </c>
@@ -43556,7 +43608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>158</v>
       </c>
@@ -43585,7 +43637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>159</v>
       </c>
@@ -43614,7 +43666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>160</v>
       </c>
@@ -43643,7 +43695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>161</v>
       </c>
@@ -43672,7 +43724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>162</v>
       </c>
@@ -43701,7 +43753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -43730,7 +43782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>164</v>
       </c>
@@ -43759,7 +43811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>165</v>
       </c>
@@ -43788,7 +43840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>166</v>
       </c>
@@ -43817,7 +43869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>167</v>
       </c>
@@ -43846,7 +43898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>168</v>
       </c>
@@ -43875,7 +43927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>169</v>
       </c>
@@ -43904,7 +43956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>170</v>
       </c>
@@ -43933,7 +43985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>153</v>
       </c>
@@ -43962,7 +44014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>154</v>
       </c>
@@ -43991,7 +44043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>155</v>
       </c>
@@ -44020,7 +44072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>156</v>
       </c>
@@ -44049,7 +44101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>157</v>
       </c>
@@ -44078,7 +44130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>158</v>
       </c>
@@ -44107,7 +44159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>159</v>
       </c>
@@ -44136,7 +44188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>160</v>
       </c>
@@ -44165,7 +44217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>161</v>
       </c>
@@ -44194,7 +44246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>162</v>
       </c>
@@ -44223,7 +44275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>163</v>
       </c>
@@ -44252,7 +44304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>164</v>
       </c>
@@ -44281,7 +44333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>165</v>
       </c>
@@ -44310,7 +44362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>166</v>
       </c>
@@ -44339,7 +44391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>167</v>
       </c>
@@ -44368,7 +44420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>168</v>
       </c>
@@ -44397,7 +44449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>169</v>
       </c>
@@ -44426,7 +44478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>170</v>
       </c>
@@ -44455,7 +44507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>153</v>
       </c>
@@ -44484,7 +44536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>154</v>
       </c>
@@ -44513,7 +44565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>155</v>
       </c>
@@ -44542,7 +44594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>156</v>
       </c>
@@ -44571,7 +44623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>157</v>
       </c>
@@ -44600,7 +44652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>158</v>
       </c>
@@ -44629,7 +44681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>159</v>
       </c>
@@ -44658,7 +44710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>160</v>
       </c>
@@ -44687,7 +44739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>161</v>
       </c>
@@ -44716,7 +44768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>162</v>
       </c>
@@ -44745,7 +44797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>163</v>
       </c>
@@ -44774,7 +44826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>164</v>
       </c>
@@ -44803,7 +44855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>165</v>
       </c>
@@ -44832,7 +44884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>166</v>
       </c>
@@ -44861,7 +44913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>167</v>
       </c>
@@ -44890,7 +44942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>168</v>
       </c>
@@ -44919,7 +44971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>169</v>
       </c>
@@ -44948,7 +45000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>170</v>
       </c>
@@ -44977,7 +45029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>153</v>
       </c>
@@ -45006,7 +45058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>154</v>
       </c>
@@ -45035,7 +45087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>155</v>
       </c>
@@ -45064,7 +45116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>156</v>
       </c>
@@ -45093,7 +45145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>157</v>
       </c>
@@ -45122,7 +45174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>158</v>
       </c>
@@ -45151,7 +45203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>159</v>
       </c>
@@ -45180,7 +45232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>160</v>
       </c>
@@ -45209,7 +45261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>161</v>
       </c>
@@ -45238,7 +45290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>162</v>
       </c>
@@ -45267,7 +45319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>163</v>
       </c>
@@ -45296,7 +45348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>164</v>
       </c>
@@ -45325,7 +45377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>165</v>
       </c>
@@ -45354,7 +45406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>166</v>
       </c>
@@ -45383,7 +45435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>167</v>
       </c>
@@ -45412,7 +45464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>168</v>
       </c>
@@ -45441,7 +45493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>169</v>
       </c>
@@ -45470,7 +45522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>170</v>
       </c>
@@ -45499,7 +45551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>171</v>
       </c>
@@ -45528,7 +45580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>172</v>
       </c>
@@ -45557,7 +45609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>173</v>
       </c>
@@ -45586,7 +45638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>174</v>
       </c>
@@ -45615,7 +45667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>175</v>
       </c>
@@ -45644,7 +45696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>176</v>
       </c>
@@ -45673,7 +45725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>177</v>
       </c>
@@ -45702,7 +45754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>178</v>
       </c>
@@ -45731,7 +45783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>179</v>
       </c>
@@ -45760,7 +45812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>180</v>
       </c>
@@ -45789,7 +45841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>181</v>
       </c>
@@ -45818,7 +45870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>182</v>
       </c>
@@ -45847,7 +45899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>183</v>
       </c>
@@ -45876,7 +45928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>184</v>
       </c>
@@ -45905,7 +45957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>185</v>
       </c>
@@ -45934,7 +45986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>186</v>
       </c>
@@ -45963,7 +46015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>187</v>
       </c>
@@ -45992,7 +46044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>188</v>
       </c>
@@ -46021,7 +46073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>171</v>
       </c>
@@ -46050,7 +46102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>172</v>
       </c>
@@ -46079,7 +46131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>173</v>
       </c>
@@ -46108,7 +46160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>174</v>
       </c>
@@ -46137,7 +46189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>175</v>
       </c>
@@ -46166,7 +46218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>176</v>
       </c>
@@ -46195,7 +46247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>177</v>
       </c>
@@ -46224,7 +46276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>178</v>
       </c>
@@ -46253,7 +46305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>179</v>
       </c>
@@ -46282,7 +46334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>180</v>
       </c>
@@ -46311,7 +46363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>181</v>
       </c>
@@ -46340,7 +46392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>182</v>
       </c>
@@ -46369,7 +46421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>183</v>
       </c>
@@ -46398,7 +46450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>184</v>
       </c>
@@ -46427,7 +46479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>185</v>
       </c>
@@ -46456,7 +46508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>186</v>
       </c>
@@ -46485,7 +46537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>187</v>
       </c>
@@ -46514,7 +46566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>188</v>
       </c>
@@ -46543,7 +46595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>171</v>
       </c>
@@ -46572,7 +46624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>172</v>
       </c>
@@ -46601,7 +46653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>173</v>
       </c>
@@ -46630,7 +46682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>174</v>
       </c>
@@ -46659,7 +46711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>175</v>
       </c>
@@ -46688,7 +46740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>176</v>
       </c>
@@ -46717,7 +46769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>177</v>
       </c>
@@ -46746,7 +46798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>178</v>
       </c>
@@ -46775,7 +46827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>179</v>
       </c>
@@ -46804,7 +46856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>180</v>
       </c>
@@ -46833,7 +46885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>181</v>
       </c>
@@ -46862,7 +46914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>182</v>
       </c>
@@ -46891,7 +46943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>183</v>
       </c>
@@ -46920,7 +46972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>184</v>
       </c>
@@ -46949,7 +47001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>185</v>
       </c>
@@ -46978,7 +47030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>186</v>
       </c>
@@ -47007,7 +47059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>187</v>
       </c>
@@ -47036,7 +47088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>188</v>
       </c>
@@ -47065,7 +47117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>171</v>
       </c>
@@ -47094,7 +47146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>172</v>
       </c>
@@ -47123,7 +47175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>173</v>
       </c>
@@ -47152,7 +47204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>174</v>
       </c>
@@ -47181,7 +47233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>175</v>
       </c>
@@ -47210,7 +47262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>176</v>
       </c>
@@ -47239,7 +47291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>177</v>
       </c>
@@ -47268,7 +47320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>178</v>
       </c>
@@ -47297,7 +47349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>179</v>
       </c>
@@ -47326,7 +47378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>180</v>
       </c>
@@ -47355,7 +47407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>181</v>
       </c>
@@ -47384,7 +47436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>182</v>
       </c>
@@ -47413,7 +47465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>183</v>
       </c>
@@ -47442,7 +47494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>184</v>
       </c>
@@ -47471,7 +47523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>185</v>
       </c>
@@ -47500,7 +47552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>186</v>
       </c>
@@ -47529,7 +47581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>187</v>
       </c>
@@ -47558,7 +47610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>188</v>
       </c>
@@ -47587,7 +47639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>171</v>
       </c>
@@ -47616,7 +47668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>172</v>
       </c>
@@ -47645,7 +47697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>173</v>
       </c>
@@ -47674,7 +47726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>174</v>
       </c>
@@ -47703,7 +47755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>175</v>
       </c>
@@ -47732,7 +47784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>176</v>
       </c>
@@ -47761,7 +47813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>177</v>
       </c>
@@ -47790,7 +47842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>178</v>
       </c>
@@ -47819,7 +47871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>179</v>
       </c>
@@ -47848,7 +47900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>180</v>
       </c>
@@ -47877,7 +47929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>181</v>
       </c>
@@ -47906,7 +47958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>182</v>
       </c>
@@ -47935,7 +47987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>183</v>
       </c>
@@ -47964,7 +48016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>184</v>
       </c>
@@ -47993,7 +48045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>185</v>
       </c>
@@ -48022,7 +48074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>186</v>
       </c>
@@ -48051,7 +48103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>187</v>
       </c>
@@ -48080,7 +48132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>188</v>
       </c>
@@ -48109,7 +48161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>171</v>
       </c>
@@ -48138,7 +48190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>172</v>
       </c>
@@ -48167,7 +48219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>173</v>
       </c>
@@ -48196,7 +48248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>174</v>
       </c>
@@ -48225,7 +48277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>175</v>
       </c>
@@ -48254,7 +48306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>176</v>
       </c>
@@ -48283,7 +48335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>177</v>
       </c>
@@ -48312,7 +48364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>178</v>
       </c>
@@ -48341,7 +48393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>179</v>
       </c>
@@ -48370,7 +48422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>180</v>
       </c>
@@ -48399,7 +48451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>181</v>
       </c>
@@ -48428,7 +48480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>182</v>
       </c>
@@ -48457,7 +48509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>183</v>
       </c>
@@ -48486,7 +48538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>184</v>
       </c>
@@ -48515,7 +48567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>185</v>
       </c>
@@ -48544,7 +48596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>186</v>
       </c>
@@ -48573,7 +48625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>187</v>
       </c>
@@ -48602,7 +48654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>188</v>
       </c>
@@ -48631,7 +48683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>171</v>
       </c>
@@ -48660,7 +48712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>172</v>
       </c>
@@ -48689,7 +48741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>173</v>
       </c>
@@ -48718,7 +48770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>174</v>
       </c>
@@ -48747,7 +48799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>175</v>
       </c>
@@ -48776,7 +48828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>176</v>
       </c>
@@ -48805,7 +48857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>177</v>
       </c>
@@ -48834,7 +48886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>178</v>
       </c>
@@ -48863,7 +48915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>179</v>
       </c>
@@ -48892,7 +48944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>180</v>
       </c>
@@ -48921,7 +48973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>181</v>
       </c>
@@ -48950,7 +49002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>182</v>
       </c>
@@ -48979,7 +49031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>183</v>
       </c>
@@ -49008,7 +49060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>184</v>
       </c>
@@ -49037,7 +49089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>185</v>
       </c>
@@ -49066,7 +49118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>186</v>
       </c>
@@ -49095,7 +49147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>187</v>
       </c>
@@ -49124,7 +49176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>188</v>
       </c>
@@ -49153,7 +49205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>171</v>
       </c>
@@ -49182,7 +49234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>172</v>
       </c>
@@ -49211,7 +49263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>173</v>
       </c>
@@ -49240,7 +49292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>174</v>
       </c>
@@ -49269,7 +49321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>175</v>
       </c>
@@ -49298,7 +49350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>176</v>
       </c>
@@ -49327,7 +49379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>177</v>
       </c>
@@ -49356,7 +49408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>178</v>
       </c>
@@ -49385,7 +49437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>179</v>
       </c>
@@ -49414,7 +49466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>180</v>
       </c>
@@ -49443,7 +49495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>181</v>
       </c>
@@ -49472,7 +49524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>182</v>
       </c>
@@ -49501,7 +49553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>183</v>
       </c>
@@ -49530,7 +49582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>184</v>
       </c>
@@ -49559,7 +49611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>185</v>
       </c>
@@ -49588,7 +49640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>186</v>
       </c>
@@ -49617,7 +49669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>187</v>
       </c>
@@ -49646,7 +49698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>188</v>
       </c>
